--- a/reference/ARMV4T.xlsx
+++ b/reference/ARMV4T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\mgba-0.1.1-notes\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -613,15 +613,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LDR、LDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据加载指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OpCode: AND/EOR/SUB/RSB/ADD/ADC/SBC/RSC/TST/TEQ/CMP/CMN/ORR/MOV/BIC/MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV、MVN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,95 +933,95 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33:Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1420,14 +1420,14 @@
     </row>
     <row r="2" spans="1:34" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="2">
         <v>0</v>
       </c>
@@ -1437,47 +1437,47 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="I2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1511,10 +1511,10 @@
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -1539,24 +1539,24 @@
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15" t="s">
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15" t="s">
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
@@ -1569,21 +1569,21 @@
       <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
     </row>
     <row r="5" spans="1:34" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="2">
         <v>0</v>
       </c>
@@ -1608,24 +1608,24 @@
       <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
       <c r="Z5" s="2">
         <v>1</v>
       </c>
@@ -1638,18 +1638,18 @@
       <c r="AC5" s="2">
         <v>1</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AD5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1683,10 +1683,10 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -1723,12 +1723,12 @@
       <c r="Q7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
       <c r="V7" s="6">
         <v>0</v>
       </c>
@@ -1770,10 +1770,10 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="2">
         <v>0</v>
       </c>
@@ -1846,21 +1846,21 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AD8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -1909,26 +1909,26 @@
       <c r="U9" s="2">
         <v>1</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1962,10 +1962,10 @@
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="2">
         <v>1</v>
       </c>
@@ -1978,41 +1978,41 @@
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="2">
         <v>0</v>
       </c>
@@ -2085,21 +2085,21 @@
       <c r="AC12" s="6">
         <v>1</v>
       </c>
-      <c r="AD12" s="15" t="s">
+      <c r="AD12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="2">
         <v>1</v>
       </c>
@@ -2112,38 +2112,38 @@
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2177,10 +2177,10 @@
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="2">
         <v>0</v>
       </c>
@@ -2205,41 +2205,41 @@
       <c r="M15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15" t="s">
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15" t="s">
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="2">
         <v>0</v>
       </c>
@@ -2264,18 +2264,18 @@
       <c r="M16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15" t="s">
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
       <c r="V16" s="2">
         <v>0</v>
       </c>
@@ -2300,19 +2300,19 @@
       <c r="AC16" s="2">
         <v>1</v>
       </c>
-      <c r="AD16" s="15" t="s">
+      <c r="AD16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="2">
         <v>0</v>
       </c>
@@ -2337,24 +2337,24 @@
       <c r="M17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15" t="s">
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15" t="s">
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
       <c r="Z17" s="2">
         <v>1</v>
       </c>
@@ -2367,18 +2367,18 @@
       <c r="AC17" s="2">
         <v>1</v>
       </c>
-      <c r="AD17" s="15" t="s">
+      <c r="AD17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2412,10 +2412,10 @@
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -2440,39 +2440,39 @@
       <c r="M19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15" t="s">
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="2">
         <v>0</v>
       </c>
@@ -2497,18 +2497,18 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15" t="s">
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
       <c r="V20" s="2">
         <v>0</v>
       </c>
@@ -2533,18 +2533,18 @@
       <c r="AC20" s="2">
         <v>1</v>
       </c>
-      <c r="AD20" s="15" t="s">
+      <c r="AD20" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2578,10 +2578,10 @@
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="2">
         <v>1</v>
       </c>
@@ -2594,53 +2594,53 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15" t="s">
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15" t="s">
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15" t="s">
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15" t="s">
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
       <c r="AC22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="15" t="s">
+      <c r="AD22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="2">
         <v>1</v>
       </c>
@@ -2653,55 +2653,55 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15" t="s">
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15" t="s">
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15" t="s">
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
       <c r="AC23" s="2">
         <v>1</v>
       </c>
-      <c r="AD23" s="15" t="s">
+      <c r="AD23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="2">
         <v>1</v>
       </c>
@@ -2726,40 +2726,40 @@
       <c r="M24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15" t="s">
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15" t="s">
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15" t="s">
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2793,10 +2793,10 @@
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="2">
         <v>0</v>
       </c>
@@ -2806,37 +2806,37 @@
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
       <c r="AD26" s="2">
         <v>1</v>
       </c>
-      <c r="AE26" s="15" t="s">
+      <c r="AE26" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2953,325 +2953,393 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="24" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="21" t="s">
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="23"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="20"/>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="24" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="24" t="s">
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="26"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="17"/>
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="24" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="24" t="s">
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="26"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="17"/>
     </row>
     <row r="33" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="24" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="24" t="s">
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="17"/>
+    </row>
+    <row r="34" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="25"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="26"/>
-    </row>
-    <row r="34" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="26"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="17"/>
     </row>
     <row r="35" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="24" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="24" t="s">
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="26"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="17"/>
     </row>
     <row r="36" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="24" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="24" t="s">
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="26"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="17"/>
     </row>
     <row r="37" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="36" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="24" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="24" t="s">
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="26"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="17"/>
     </row>
     <row r="38" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="21" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="24" t="s">
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="26"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="17"/>
     </row>
     <row r="39" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="24" t="s">
+      <c r="A39" s="24"/>
+      <c r="B39" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="24" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="26"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="I26:AC26"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="Z24:AG24"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:AG19"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:AG15"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="V2:AG2"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="V9:AG9"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:I33"/>
+    <mergeCell ref="B34:I36"/>
+    <mergeCell ref="B37:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="B2:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="P30:Y30"/>
+    <mergeCell ref="P31:Y31"/>
+    <mergeCell ref="P32:Y32"/>
+    <mergeCell ref="P33:Y33"/>
+    <mergeCell ref="P34:Y34"/>
     <mergeCell ref="P35:Y35"/>
     <mergeCell ref="P36:Y36"/>
     <mergeCell ref="P37:Y37"/>
@@ -3281,74 +3349,6 @@
     <mergeCell ref="J36:O36"/>
     <mergeCell ref="J37:O37"/>
     <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="P30:Y30"/>
-    <mergeCell ref="P31:Y31"/>
-    <mergeCell ref="P32:Y32"/>
-    <mergeCell ref="P33:Y33"/>
-    <mergeCell ref="P34:Y34"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="V9:AG9"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:I33"/>
-    <mergeCell ref="B34:I36"/>
-    <mergeCell ref="B37:I38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:AG15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="V2:AG2"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="B2:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:AG19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="I26:AC26"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/reference/ARMV4T.xlsx
+++ b/reference/ARMV4T.xlsx
@@ -589,39 +589,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CDP、MCR、MRC、LDC、STC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B、BL、BX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR、STM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据加载指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCode: AND/EOR/SUB/RSB/ADD/ADC/SBC/RSC/TST/TEQ/CMP/CMN/ORR/MOV/BIC/MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV、MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LDR、LDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDP、MCR、MRC、LDC、STC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B、BL、BX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR、STM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据加载指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpCode: AND/EOR/SUB/RSB/ADD/ADC/SBC/RSC/TST/TEQ/CMP/CMN/ORR/MOV/BIC/MVN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOV、MVN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +942,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -961,60 +1024,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1305,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33:Y33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1420,14 +1429,14 @@
     </row>
     <row r="2" spans="1:34" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="2">
         <v>0</v>
       </c>
@@ -1437,47 +1446,47 @@
       <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="I2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1511,10 +1520,10 @@
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -1539,24 +1548,24 @@
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21" t="s">
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21" t="s">
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
@@ -1569,21 +1578,21 @@
       <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AD4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
     </row>
     <row r="5" spans="1:34" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="2">
         <v>0</v>
       </c>
@@ -1608,24 +1617,24 @@
       <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21" t="s">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21" t="s">
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
       <c r="Z5" s="2">
         <v>1</v>
       </c>
@@ -1638,18 +1647,18 @@
       <c r="AC5" s="2">
         <v>1</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AD5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1683,10 +1692,10 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -1723,12 +1732,12 @@
       <c r="Q7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
       <c r="V7" s="6">
         <v>0</v>
       </c>
@@ -1770,10 +1779,10 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="2">
         <v>0</v>
       </c>
@@ -1846,21 +1855,21 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="21" t="s">
+      <c r="AD8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -1909,26 +1918,26 @@
       <c r="U9" s="2">
         <v>1</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="V9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1960,146 +1969,146 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+        <v>34</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1</v>
+      </c>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>1</v>
+      </c>
+      <c r="V11" s="6">
+        <v>1</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+        <v>19</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12" s="6">
-        <v>1</v>
-      </c>
-      <c r="T12" s="6">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6">
-        <v>1</v>
-      </c>
-      <c r="V12" s="6">
-        <v>1</v>
-      </c>
-      <c r="W12" s="6">
-        <v>1</v>
-      </c>
-      <c r="X12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="2">
         <v>1</v>
       </c>
@@ -2112,38 +2121,38 @@
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2177,10 +2186,10 @@
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="2">
         <v>0</v>
       </c>
@@ -2205,41 +2214,41 @@
       <c r="M15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21" t="s">
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21" t="s">
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="2">
         <v>0</v>
       </c>
@@ -2264,18 +2273,18 @@
       <c r="M16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21" t="s">
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
       <c r="V16" s="2">
         <v>0</v>
       </c>
@@ -2300,19 +2309,19 @@
       <c r="AC16" s="2">
         <v>1</v>
       </c>
-      <c r="AD16" s="21" t="s">
+      <c r="AD16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="2">
         <v>0</v>
       </c>
@@ -2337,24 +2346,24 @@
       <c r="M17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21" t="s">
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21" t="s">
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
       <c r="Z17" s="2">
         <v>1</v>
       </c>
@@ -2367,18 +2376,18 @@
       <c r="AC17" s="2">
         <v>1</v>
       </c>
-      <c r="AD17" s="21" t="s">
+      <c r="AD17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2412,10 +2421,10 @@
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -2440,39 +2449,39 @@
       <c r="M19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21" t="s">
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="2">
         <v>0</v>
       </c>
@@ -2497,18 +2506,18 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21" t="s">
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
       <c r="V20" s="2">
         <v>0</v>
       </c>
@@ -2533,18 +2542,18 @@
       <c r="AC20" s="2">
         <v>1</v>
       </c>
-      <c r="AD20" s="21" t="s">
+      <c r="AD20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="21"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2578,10 +2587,10 @@
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="2">
         <v>1</v>
       </c>
@@ -2594,53 +2603,53 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21" t="s">
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21" t="s">
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21" t="s">
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21" t="s">
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
       <c r="AC22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="21" t="s">
+      <c r="AD22" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="2">
         <v>1</v>
       </c>
@@ -2653,55 +2662,55 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21" t="s">
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21" t="s">
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21" t="s">
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
       <c r="AC23" s="2">
         <v>1</v>
       </c>
-      <c r="AD23" s="21" t="s">
+      <c r="AD23" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="2">
         <v>1</v>
       </c>
@@ -2726,40 +2735,40 @@
       <c r="M24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21" t="s">
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21" t="s">
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21" t="s">
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2793,10 +2802,10 @@
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="2">
         <v>0</v>
       </c>
@@ -2806,37 +2815,37 @@
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
       <c r="AD26" s="2">
         <v>1</v>
       </c>
-      <c r="AE26" s="21" t="s">
+      <c r="AE26" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AF26" s="21"/>
-      <c r="AG26" s="21"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2953,294 +2962,294 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="15" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="18" t="s">
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="20"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="41"/>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="15" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="15" t="s">
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="17"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="38"/>
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="15" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="15" t="s">
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="17"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="38"/>
     </row>
     <row r="33" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="15" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="15" t="s">
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="38"/>
+    </row>
+    <row r="34" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
+      <c r="B34" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="17"/>
-    </row>
-    <row r="34" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="17"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="38"/>
     </row>
     <row r="35" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="15" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="17"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="38"/>
     </row>
     <row r="36" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="15" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="17"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="38"/>
     </row>
     <row r="37" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="15" t="s">
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="17"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="38"/>
     </row>
     <row r="38" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="18" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="17"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="38"/>
     </row>
     <row r="39" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="15" t="s">
         <v>89</v>
       </c>
@@ -3251,27 +3260,27 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="17"/>
+      <c r="J39" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="73">
     <mergeCell ref="AE26:AG26"/>
     <mergeCell ref="I26:AC26"/>
     <mergeCell ref="J23:L23"/>
@@ -3305,7 +3314,7 @@
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="V15:AG15"/>
-    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD11:AG11"/>
     <mergeCell ref="V2:AG2"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
@@ -3317,12 +3326,8 @@
     <mergeCell ref="AD5:AG5"/>
     <mergeCell ref="AD8:AG8"/>
     <mergeCell ref="V9:AG9"/>
-    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="J12:AG12"/>
     <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:I33"/>
-    <mergeCell ref="B34:I36"/>
-    <mergeCell ref="B37:I38"/>
-    <mergeCell ref="B39:I39"/>
     <mergeCell ref="J30:O30"/>
     <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="N16:Q16"/>

--- a/reference/ARMV4T.xlsx
+++ b/reference/ARMV4T.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,14 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比较指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据传送指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据存储指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,14 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AND、ORR、EOR、BIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMP、CMN、TEQ、TST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CDP、MCR、MRC、LDC、STC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B、BL、BX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SWP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,6 +602,42 @@
   </si>
   <si>
     <t>LDR、LDM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BX、B、BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据传送指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND/ORR/EOR/BIC: Rd:=Op1 AND/OR/EOR/AND NOT Op2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TST/TEQ/CMP/CMN: set CPSR condition codes on Op1 AND/EOR/-/+/ Op2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND、EOR、ORR、BIC(与非)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TST、TEQ、CMP、CMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试比较指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +949,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,31 +970,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -996,41 +1012,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="V2" sqref="V2:AG2"/>
@@ -1429,64 +1424,64 @@
     </row>
     <row r="2" spans="1:34" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42" t="s">
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1520,10 +1515,10 @@
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -1548,24 +1543,24 @@
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42" t="s">
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42" t="s">
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
@@ -1578,21 +1573,21 @@
       <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="42" t="s">
+      <c r="AD4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
     </row>
     <row r="5" spans="1:34" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="2">
         <v>0</v>
       </c>
@@ -1617,24 +1612,24 @@
       <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="42" t="s">
+      <c r="N5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42" t="s">
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
       <c r="Z5" s="2">
         <v>1</v>
       </c>
@@ -1647,18 +1642,18 @@
       <c r="AC5" s="2">
         <v>1</v>
       </c>
-      <c r="AD5" s="42" t="s">
+      <c r="AD5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1692,10 +1687,10 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -1732,12 +1727,12 @@
       <c r="Q7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="42" t="s">
+      <c r="R7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
       <c r="V7" s="6">
         <v>0</v>
       </c>
@@ -1779,10 +1774,10 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="2">
         <v>0</v>
       </c>
@@ -1855,21 +1850,21 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="42" t="s">
+      <c r="AD8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -1918,26 +1913,26 @@
       <c r="U9" s="2">
         <v>1</v>
       </c>
-      <c r="V9" s="42" t="s">
+      <c r="V9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1971,10 +1966,10 @@
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="2">
         <v>0</v>
       </c>
@@ -2047,21 +2042,21 @@
       <c r="AC11" s="6">
         <v>1</v>
       </c>
-      <c r="AD11" s="42" t="s">
+      <c r="AD11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="2">
         <v>1</v>
       </c>
@@ -2074,41 +2069,41 @@
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="2">
         <v>1</v>
       </c>
@@ -2121,38 +2116,38 @@
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2186,10 +2181,10 @@
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="2">
         <v>0</v>
       </c>
@@ -2214,41 +2209,41 @@
       <c r="M15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42" t="s">
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42" t="s">
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="2">
         <v>0</v>
       </c>
@@ -2273,18 +2268,18 @@
       <c r="M16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42" t="s">
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
       <c r="V16" s="2">
         <v>0</v>
       </c>
@@ -2309,19 +2304,19 @@
       <c r="AC16" s="2">
         <v>1</v>
       </c>
-      <c r="AD16" s="42" t="s">
+      <c r="AD16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="2">
         <v>0</v>
       </c>
@@ -2346,24 +2341,24 @@
       <c r="M17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42" t="s">
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42" t="s">
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
       <c r="Z17" s="2">
         <v>1</v>
       </c>
@@ -2376,18 +2371,18 @@
       <c r="AC17" s="2">
         <v>1</v>
       </c>
-      <c r="AD17" s="42" t="s">
+      <c r="AD17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2421,10 +2416,10 @@
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -2449,39 +2444,39 @@
       <c r="M19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42" t="s">
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="2">
         <v>0</v>
       </c>
@@ -2506,18 +2501,18 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42" t="s">
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
       <c r="V20" s="2">
         <v>0</v>
       </c>
@@ -2542,18 +2537,18 @@
       <c r="AC20" s="2">
         <v>1</v>
       </c>
-      <c r="AD20" s="42" t="s">
+      <c r="AD20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2587,10 +2582,10 @@
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="2">
         <v>1</v>
       </c>
@@ -2603,53 +2598,53 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42" t="s">
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42" t="s">
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42" t="s">
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42" t="s">
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
       <c r="AC22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="42" t="s">
+      <c r="AD22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="2">
         <v>1</v>
       </c>
@@ -2662,55 +2657,55 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42" t="s">
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42" t="s">
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42" t="s">
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
       <c r="AC23" s="2">
         <v>1</v>
       </c>
-      <c r="AD23" s="42" t="s">
+      <c r="AD23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="2">
         <v>1</v>
       </c>
@@ -2735,40 +2730,40 @@
       <c r="M24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="42" t="s">
+      <c r="N24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42" t="s">
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42" t="s">
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42" t="s">
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2802,10 +2797,10 @@
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="2">
         <v>0</v>
       </c>
@@ -2815,37 +2810,37 @@
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
       <c r="AD26" s="2">
         <v>1</v>
       </c>
-      <c r="AE26" s="42" t="s">
+      <c r="AE26" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2962,135 +2957,135 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="36" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="41"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="26"/>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="36" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="38"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="21"/>
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
-    </row>
-    <row r="33" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="38"/>
-    </row>
-    <row r="34" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="21"/>
+    </row>
+    <row r="33" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="21"/>
+    </row>
+    <row r="34" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
       <c r="B34" s="27" t="s">
         <v>87</v>
       </c>
@@ -3101,29 +3096,29 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="29"/>
-      <c r="J34" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="38"/>
-    </row>
-    <row r="35" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
+      <c r="J34" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="21"/>
+    </row>
+    <row r="35" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
@@ -3132,29 +3127,29 @@
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
       <c r="I35" s="32"/>
-      <c r="J35" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="38"/>
-    </row>
-    <row r="36" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="J35" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="21"/>
+    </row>
+    <row r="36" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
       <c r="B36" s="33"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -3163,29 +3158,29 @@
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="38"/>
-    </row>
-    <row r="37" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
+      <c r="J36" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="21"/>
+    </row>
+    <row r="37" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
       <c r="B37" s="27" t="s">
         <v>88</v>
       </c>
@@ -3196,29 +3191,29 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="29"/>
-      <c r="J37" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
-    </row>
-    <row r="38" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
+      <c r="J37" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="21"/>
+    </row>
+    <row r="38" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -3227,86 +3222,171 @@
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="39" t="s">
+      <c r="J38" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="21"/>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="38"/>
-    </row>
-    <row r="39" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="38"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="21"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="40"/>
+      <c r="AE41" s="40"/>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="36"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B42" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="I26:AC26"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:AG19"/>
+  <mergeCells count="79">
+    <mergeCell ref="B42:AF42"/>
+    <mergeCell ref="B41:AF41"/>
+    <mergeCell ref="B30:I33"/>
+    <mergeCell ref="B34:I36"/>
+    <mergeCell ref="B37:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="P35:Y35"/>
+    <mergeCell ref="P36:Y36"/>
+    <mergeCell ref="P37:Y37"/>
+    <mergeCell ref="P38:Y38"/>
+    <mergeCell ref="J39:Y39"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="P30:Y30"/>
+    <mergeCell ref="P31:Y31"/>
+    <mergeCell ref="P32:Y32"/>
+    <mergeCell ref="P33:Y33"/>
+    <mergeCell ref="P34:Y34"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="V9:AG9"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="B2:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="J33:O33"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
@@ -3323,37 +3403,32 @@
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="V9:AG9"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="B2:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="P30:Y30"/>
-    <mergeCell ref="P31:Y31"/>
-    <mergeCell ref="P32:Y32"/>
-    <mergeCell ref="P33:Y33"/>
-    <mergeCell ref="P34:Y34"/>
-    <mergeCell ref="P35:Y35"/>
-    <mergeCell ref="P36:Y36"/>
-    <mergeCell ref="P37:Y37"/>
-    <mergeCell ref="P38:Y38"/>
-    <mergeCell ref="J39:Y39"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:AG19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="I26:AC26"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="Z24:AG24"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AD23:AG23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/reference/ARMV4T.xlsx
+++ b/reference/ARMV4T.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,10 +621,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AND/ORR/EOR/BIC: Rd:=Op1 AND/OR/EOR/AND NOT Op2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TST/TEQ/CMP/CMN: set CPSR condition codes on Op1 AND/EOR/-/+/ Op2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,6 +634,136 @@
   </si>
   <si>
     <t>测试比较指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术指令(加减法)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑指令(与或非)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND/EOR/ORR/BIC: Rd:=Op1 AND/EOR/OR/AND NOT Op2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND/EOR/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TST/TEQ/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORR/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MOV/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BIC/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MVN</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUB/RSB/ADD/ADC/SBC/RSC/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMP/CMN</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色数处指令格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色数处指令格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色数处指令格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;opcode&gt; {cond} {S} Rd, Rn, &lt;Op2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;opcode&gt; {cond} {S} Rd, &lt;Op2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;opcode&gt; {cond} Rn, &lt;Op2&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +771,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +790,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -903,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,6 +1099,66 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,70 +1171,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AG2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:AF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1426,12 +1579,12 @@
       <c r="A2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="2">
         <v>0</v>
       </c>
@@ -1441,47 +1594,47 @@
       <c r="H2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="I2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1515,10 +1668,10 @@
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -1543,24 +1696,24 @@
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15" t="s">
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15" t="s">
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
@@ -1573,21 +1726,21 @@
       <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
     </row>
     <row r="5" spans="1:34" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="2">
         <v>0</v>
       </c>
@@ -1612,24 +1765,24 @@
       <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
       <c r="Z5" s="2">
         <v>1</v>
       </c>
@@ -1642,18 +1795,18 @@
       <c r="AC5" s="2">
         <v>1</v>
       </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AD5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1687,10 +1840,10 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -1727,12 +1880,12 @@
       <c r="Q7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
       <c r="V7" s="6">
         <v>0</v>
       </c>
@@ -1774,10 +1927,10 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="2">
         <v>0</v>
       </c>
@@ -1850,21 +2003,21 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AD8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -1913,26 +2066,26 @@
       <c r="U9" s="2">
         <v>1</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1966,10 +2119,10 @@
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="2">
         <v>0</v>
       </c>
@@ -2042,21 +2195,21 @@
       <c r="AC11" s="6">
         <v>1</v>
       </c>
-      <c r="AD11" s="15" t="s">
+      <c r="AD11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="2">
         <v>1</v>
       </c>
@@ -2069,41 +2222,41 @@
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="2">
         <v>1</v>
       </c>
@@ -2116,38 +2269,38 @@
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2181,10 +2334,10 @@
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="2">
         <v>0</v>
       </c>
@@ -2209,41 +2362,41 @@
       <c r="M15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15" t="s">
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15" t="s">
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="2">
         <v>0</v>
       </c>
@@ -2268,18 +2421,18 @@
       <c r="M16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15" t="s">
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
       <c r="V16" s="2">
         <v>0</v>
       </c>
@@ -2304,19 +2457,19 @@
       <c r="AC16" s="2">
         <v>1</v>
       </c>
-      <c r="AD16" s="15" t="s">
+      <c r="AD16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="2">
         <v>0</v>
       </c>
@@ -2341,24 +2494,24 @@
       <c r="M17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15" t="s">
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15" t="s">
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
       <c r="Z17" s="2">
         <v>1</v>
       </c>
@@ -2371,18 +2524,18 @@
       <c r="AC17" s="2">
         <v>1</v>
       </c>
-      <c r="AD17" s="15" t="s">
+      <c r="AD17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2416,10 +2569,10 @@
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -2444,39 +2597,39 @@
       <c r="M19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15" t="s">
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="2">
         <v>0</v>
       </c>
@@ -2501,18 +2654,18 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15" t="s">
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
       <c r="V20" s="2">
         <v>0</v>
       </c>
@@ -2537,18 +2690,18 @@
       <c r="AC20" s="2">
         <v>1</v>
       </c>
-      <c r="AD20" s="15" t="s">
+      <c r="AD20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2582,10 +2735,10 @@
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="2">
         <v>1</v>
       </c>
@@ -2598,53 +2751,53 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15" t="s">
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15" t="s">
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15" t="s">
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15" t="s">
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
       <c r="AC22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="15" t="s">
+      <c r="AD22" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="2">
         <v>1</v>
       </c>
@@ -2657,55 +2810,55 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15" t="s">
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15" t="s">
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15" t="s">
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
       <c r="AC23" s="2">
         <v>1</v>
       </c>
-      <c r="AD23" s="15" t="s">
+      <c r="AD23" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="2">
         <v>1</v>
       </c>
@@ -2730,40 +2883,40 @@
       <c r="M24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15" t="s">
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15" t="s">
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15" t="s">
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2797,10 +2950,10 @@
       <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="2">
         <v>0</v>
       </c>
@@ -2810,37 +2963,37 @@
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
       <c r="AD26" s="2">
         <v>1</v>
       </c>
-      <c r="AE26" s="15" t="s">
+      <c r="AE26" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2957,399 +3110,657 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="19" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="24" t="s">
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="26"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="34"/>
     </row>
     <row r="31" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="19" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="19" t="s">
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="31"/>
+    </row>
+    <row r="32" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="21"/>
-    </row>
-    <row r="32" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="21"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="31"/>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="19" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="19" t="s">
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="21"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="31"/>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="19" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="19" t="s">
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="21"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="31"/>
     </row>
     <row r="35" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="19" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="19" t="s">
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="21"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="31"/>
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="19" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="19" t="s">
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="21"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="31"/>
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="19" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="19" t="s">
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="21"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="31"/>
     </row>
     <row r="38" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="24" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="19" t="s">
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="21"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="31"/>
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="19" t="s">
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="21"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="31"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="15"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B42" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="36"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B42" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="38"/>
-      <c r="AD42" s="38"/>
-      <c r="AE42" s="38"/>
-      <c r="AF42" s="39"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="18"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="18"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="18"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="18"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="18"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="84">
+    <mergeCell ref="B43:AF43"/>
+    <mergeCell ref="B44:AF44"/>
+    <mergeCell ref="B45:AF45"/>
+    <mergeCell ref="B46:AF46"/>
+    <mergeCell ref="B47:AF47"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="I26:AC26"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="Z24:AG24"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="R19:AG19"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:AG15"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="V2:AG2"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="V9:AG9"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="B2:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="P30:Y30"/>
+    <mergeCell ref="P31:Y31"/>
+    <mergeCell ref="P32:Y32"/>
+    <mergeCell ref="P33:Y33"/>
+    <mergeCell ref="P34:Y34"/>
     <mergeCell ref="B42:AF42"/>
     <mergeCell ref="B41:AF41"/>
     <mergeCell ref="B30:I33"/>
@@ -3366,69 +3777,6 @@
     <mergeCell ref="J37:O37"/>
     <mergeCell ref="J38:O38"/>
     <mergeCell ref="J34:O34"/>
-    <mergeCell ref="P30:Y30"/>
-    <mergeCell ref="P31:Y31"/>
-    <mergeCell ref="P32:Y32"/>
-    <mergeCell ref="P33:Y33"/>
-    <mergeCell ref="P34:Y34"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="V9:AG9"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="B2:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:AG15"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="V2:AG2"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="R19:AG19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="AD20:AG20"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="I26:AC26"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AD23:AG23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/reference/ARMV4T.xlsx
+++ b/reference/ARMV4T.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="199">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +92,6 @@
   </si>
   <si>
     <t>Pd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -383,15 +380,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OpCode: AND/EOR/SUB/RSB/ADD/ADC/SBC/RSC/TST/TEQ/CMP/CMN/ORR/MOV/BIC/MVN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LDR、LDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,35 +752,312 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MOV、MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;opcode&gt; {cond} Rn, &lt;Op2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD、ADC、SUB、SBC、RSB、RSC、MUL、MLA、UMULL、UMLAL、SMULL、SMLAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TST(AND后更新NZ)、TEQ(EOR后更新NZCV)、CMP(SUB后更新NZCV)、CMN(ADD即取相反数减后更新NZCV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment field (ignored by Processor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND(按位与)、EOR(按位异或)、ORR(按位或)、BIC(取反后按位与)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Rd</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>THUMB指令</t>
+  </si>
+  <si>
+    <t>LSL/LSR/ASR</t>
+  </si>
+  <si>
+    <t>OpCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset5</t>
+  </si>
+  <si>
+    <t>Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Rd: Destination register  Rn: An operand in a register for an arithmetic  Rm/Rs: sama as Rn, use for mul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOV、MVN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;opcode&gt; {cond} Rn, &lt;Op2&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADD、ADC、SUB、SBC、RSB、RSC、MUL、MLA、UMULL、UMLAL、SMULL、SMLAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TST(AND后更新NZ)、TEQ(EOR后更新NZCV)、CMP(SUB后更新NZCV)、CMN(ADD即取相反数减后更新NZCV)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment field (ignored by Processor)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND(按位与)、EOR(按位异或)、ORR(按位或)、BIC(取反后按位与)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rn</t>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD/SUB</t>
+  </si>
+  <si>
+    <t>Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rn/Offset3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV/CMP/ADD/SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCode: AND/EOR/SUB/RSB/ADD/ADC/SBC/RSC/TST/TEQ/CMP/CMN/ORR/MOV/BIC/MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCode: AND/EOR/LSL/LSR/ ASR/ADC/SBC/ROR/ TST/NEG/CMP/CMN/ORR/MUL/BIC/MVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rd/Hd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Word8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWord7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOffset8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unconditional branch: B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long branch with link: BL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional branch/BXX: BEQ/BNE/BCS/BCC/ BMI/BPL/BVS/BVC/ BHI/BLS/BGE/BLT/ BGT/BLE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software interrupt: SWI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push/pop registers: PUSH/POP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rs/Hs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi register operations/branch exchange: ADD/CMP/MOV/BX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple load/store: STMIA/LDMIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load/store with register offset: STR/STRB/LDR/LDRB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load/store sign-extended byte/halfw: STRH/LDRH/LDSB/LDSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load/store halfword: STRH/LDRH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load/store with immediate offset: STR/LDR/STRB/LDRB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC relative load: LDR Rd, [PC, #Imm]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP-relative load/store: STR/LDR Rd, [SP, #Imm]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load address: ADD Rd, PC/SP, #Imm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add offset to Stack Pointer: ADD SP, #Imm/#-Imm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,6 +1368,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1492,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,15 +1794,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:U2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="4" customWidth="1"/>
-    <col min="2" max="33" width="2.75" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.125" style="5" customWidth="1"/>
+    <col min="2" max="33" width="2.75" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
@@ -1622,101 +1909,101 @@
     </row>
     <row r="2" spans="1:34" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+        <v>145</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="H2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39" t="s">
+      <c r="N2" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -1741,24 +2028,24 @@
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39" t="s">
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39" t="s">
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
@@ -1771,21 +2058,21 @@
       <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="39" t="s">
+      <c r="AD4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
     </row>
     <row r="5" spans="1:34" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="2">
         <v>0</v>
       </c>
@@ -1810,24 +2097,24 @@
       <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39" t="s">
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39" t="s">
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
       <c r="Z5" s="2">
         <v>1</v>
       </c>
@@ -1840,55 +2127,55 @@
       <c r="AC5" s="2">
         <v>1</v>
       </c>
-      <c r="AD5" s="39" t="s">
+      <c r="AD5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -1925,22 +2212,22 @@
       <c r="Q7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-      <c r="W7" s="13">
-        <v>0</v>
-      </c>
-      <c r="X7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="13">
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14">
         <v>0</v>
       </c>
       <c r="Z7" s="2">
@@ -1969,13 +2256,13 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="2">
         <v>0</v>
       </c>
@@ -1991,7 +2278,7 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="2">
@@ -2048,21 +2335,21 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="39" t="s">
+      <c r="AD8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -2070,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -2111,894 +2398,894 @@
       <c r="U9" s="2">
         <v>1</v>
       </c>
-      <c r="V9" s="39" t="s">
+      <c r="V9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>1</v>
+      </c>
+      <c r="R11" s="14">
+        <v>1</v>
+      </c>
+      <c r="S11" s="14">
+        <v>1</v>
+      </c>
+      <c r="T11" s="14">
+        <v>1</v>
+      </c>
+      <c r="U11" s="14">
+        <v>1</v>
+      </c>
+      <c r="V11" s="14">
+        <v>1</v>
+      </c>
+      <c r="W11" s="14">
+        <v>1</v>
+      </c>
+      <c r="X11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13">
-        <v>1</v>
-      </c>
-      <c r="O11" s="13">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>1</v>
-      </c>
-      <c r="R11" s="13">
-        <v>1</v>
-      </c>
-      <c r="S11" s="13">
-        <v>1</v>
-      </c>
-      <c r="T11" s="13">
-        <v>1</v>
-      </c>
-      <c r="U11" s="13">
-        <v>1</v>
-      </c>
-      <c r="V11" s="13">
-        <v>1</v>
-      </c>
-      <c r="W11" s="13">
-        <v>1</v>
-      </c>
-      <c r="X11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="39" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+    </row>
+    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+    </row>
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+    </row>
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+    </row>
+    <row r="19" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-    </row>
-    <row r="15" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-    </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-    </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-    </row>
-    <row r="19" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="39" t="s">
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="39"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="2">
         <v>0</v>
       </c>
@@ -3008,41 +3295,41 @@
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
+      <c r="I26" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
       <c r="AD26" s="2">
         <v>1</v>
       </c>
-      <c r="AE26" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="39"/>
+      <c r="AE26" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2">
         <v>31</v>
@@ -3143,712 +3430,712 @@
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:34" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="39"/>
+    </row>
+    <row r="31" spans="1:34" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="39"/>
+    </row>
+    <row r="32" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="39"/>
+    </row>
+    <row r="33" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="36"/>
+    </row>
+    <row r="34" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="36"/>
+    </row>
+    <row r="35" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="42"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="36"/>
+    </row>
+    <row r="36" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="36"/>
+    </row>
+    <row r="37" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="38"/>
-    </row>
-    <row r="31" spans="1:34" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="38"/>
-    </row>
-    <row r="32" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
-    </row>
-    <row r="33" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="35"/>
-    </row>
-    <row r="34" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="24" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="33" t="s">
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="36"/>
+    </row>
+    <row r="38" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="36"/>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="36"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="16"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B42" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="22"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="22"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="22"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="35"/>
-    </row>
-    <row r="35" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="35"/>
-    </row>
-    <row r="36" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="35"/>
-    </row>
-    <row r="37" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="41"/>
-      <c r="B37" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="33" t="s">
+      <c r="B45" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="22"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="35"/>
-    </row>
-    <row r="38" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="41"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="35"/>
-    </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
-      <c r="B39" s="33" t="s">
+      <c r="B46" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="21"/>
+      <c r="AF46" s="22"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21"/>
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="22"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="35"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="23" t="s">
+      <c r="B48" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="22"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="23"/>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="23"/>
-      <c r="AD41" s="23"/>
-      <c r="AE41" s="23"/>
-      <c r="AF41" s="23"/>
-      <c r="AG41" s="15"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B42" s="22" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="21"/>
+      <c r="AF49" s="22"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="21"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="21"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="21"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="21"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="21"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20"/>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="21"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="21"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="21"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="18"/>
+      <c r="B50" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -3944,4 +4231,883 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="115" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.125" style="46" customWidth="1"/>
+    <col min="2" max="17" width="2.875" style="46" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="47">
+        <v>15</v>
+      </c>
+      <c r="C1" s="47">
+        <v>14</v>
+      </c>
+      <c r="D1" s="47">
+        <v>13</v>
+      </c>
+      <c r="E1" s="47">
+        <v>12</v>
+      </c>
+      <c r="F1" s="47">
+        <v>11</v>
+      </c>
+      <c r="G1" s="47">
+        <v>10</v>
+      </c>
+      <c r="H1" s="47">
+        <v>9</v>
+      </c>
+      <c r="I1" s="47">
+        <v>8</v>
+      </c>
+      <c r="J1" s="47">
+        <v>7</v>
+      </c>
+      <c r="K1" s="47">
+        <v>6</v>
+      </c>
+      <c r="L1" s="47">
+        <v>5</v>
+      </c>
+      <c r="M1" s="47">
+        <v>4</v>
+      </c>
+      <c r="N1" s="47">
+        <v>3</v>
+      </c>
+      <c r="O1" s="47">
+        <v>2</v>
+      </c>
+      <c r="P1" s="47">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="48"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+    </row>
+    <row r="3" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="47">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0</v>
+      </c>
+      <c r="C4" s="47">
+        <v>0</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1</v>
+      </c>
+      <c r="F4" s="47">
+        <v>1</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="49">
+        <v>0</v>
+      </c>
+      <c r="C5" s="49">
+        <v>0</v>
+      </c>
+      <c r="D5" s="49">
+        <v>1</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+    </row>
+    <row r="7" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="49">
+        <v>0</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49">
+        <v>0</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="9" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="49">
+        <v>0</v>
+      </c>
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <v>1</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="49">
+        <v>0</v>
+      </c>
+      <c r="C10" s="49">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0</v>
+      </c>
+      <c r="E10" s="49">
+        <v>0</v>
+      </c>
+      <c r="F10" s="49">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="49">
+        <v>0</v>
+      </c>
+      <c r="C11" s="49">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="E11" s="49">
+        <v>1</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+    </row>
+    <row r="12" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="49">
+        <v>0</v>
+      </c>
+      <c r="C12" s="49">
+        <v>1</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0</v>
+      </c>
+      <c r="E12" s="49">
+        <v>1</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="49">
+        <v>1</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+    </row>
+    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="49">
+        <v>0</v>
+      </c>
+      <c r="C13" s="49">
+        <v>1</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="49">
+        <v>1</v>
+      </c>
+      <c r="C14" s="49">
+        <v>0</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0</v>
+      </c>
+      <c r="E14" s="49">
+        <v>0</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+    </row>
+    <row r="15" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="49">
+        <v>1</v>
+      </c>
+      <c r="C15" s="49">
+        <v>0</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0</v>
+      </c>
+      <c r="E15" s="49">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+    </row>
+    <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="49">
+        <v>1</v>
+      </c>
+      <c r="C16" s="49">
+        <v>0</v>
+      </c>
+      <c r="D16" s="49">
+        <v>1</v>
+      </c>
+      <c r="E16" s="49">
+        <v>0</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+    </row>
+    <row r="17" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="49">
+        <v>1</v>
+      </c>
+      <c r="C17" s="49">
+        <v>0</v>
+      </c>
+      <c r="D17" s="49">
+        <v>1</v>
+      </c>
+      <c r="E17" s="49">
+        <v>1</v>
+      </c>
+      <c r="F17" s="49">
+        <v>0</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="49">
+        <v>0</v>
+      </c>
+      <c r="I17" s="49">
+        <v>0</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+    </row>
+    <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="49">
+        <v>1</v>
+      </c>
+      <c r="C18" s="49">
+        <v>0</v>
+      </c>
+      <c r="D18" s="49">
+        <v>1</v>
+      </c>
+      <c r="E18" s="49">
+        <v>1</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="49">
+        <v>1</v>
+      </c>
+      <c r="H18" s="49">
+        <v>0</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+    </row>
+    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="49">
+        <v>1</v>
+      </c>
+      <c r="C19" s="49">
+        <v>1</v>
+      </c>
+      <c r="D19" s="49">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49">
+        <v>0</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+    </row>
+    <row r="21" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="49">
+        <v>1</v>
+      </c>
+      <c r="C21" s="49">
+        <v>1</v>
+      </c>
+      <c r="D21" s="49">
+        <v>0</v>
+      </c>
+      <c r="E21" s="49">
+        <v>1</v>
+      </c>
+      <c r="F21" s="49">
+        <v>1</v>
+      </c>
+      <c r="G21" s="49">
+        <v>1</v>
+      </c>
+      <c r="H21" s="49">
+        <v>1</v>
+      </c>
+      <c r="I21" s="49">
+        <v>1</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+    </row>
+    <row r="23" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="49">
+        <v>1</v>
+      </c>
+      <c r="C23" s="49">
+        <v>1</v>
+      </c>
+      <c r="D23" s="49">
+        <v>0</v>
+      </c>
+      <c r="E23" s="49">
+        <v>1</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+    </row>
+    <row r="24" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="49">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49">
+        <v>1</v>
+      </c>
+      <c r="D24" s="49">
+        <v>1</v>
+      </c>
+      <c r="E24" s="49">
+        <v>0</v>
+      </c>
+      <c r="F24" s="49">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+    </row>
+    <row r="25" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="49">
+        <v>1</v>
+      </c>
+      <c r="C25" s="49">
+        <v>1</v>
+      </c>
+      <c r="D25" s="49">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49">
+        <v>1</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="G25:Q25"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:Q10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>